--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BDE/10/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BDE/10/seed4/result_data_KNN.xlsx
@@ -584,7 +584,7 @@
         <v>-21.5</v>
       </c>
       <c r="B9" t="n">
-        <v>5.835999999999999</v>
+        <v>6.345999999999999</v>
       </c>
       <c r="C9" t="n">
         <v>-11.36</v>
@@ -641,7 +641,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.168000000000001</v>
+        <v>-7.269</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -695,7 +695,7 @@
         <v>-10.04</v>
       </c>
       <c r="E15" t="n">
-        <v>16.036</v>
+        <v>16.158</v>
       </c>
     </row>
     <row r="16">
@@ -737,7 +737,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>5.813999999999999</v>
+        <v>5.166</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -771,7 +771,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>7.896000000000001</v>
+        <v>6.992</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -879,7 +879,7 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-7.442</v>
+        <v>-8.062000000000001</v>
       </c>
       <c r="E26" t="n">
         <v>13.83</v>
@@ -890,13 +890,13 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>5.988</v>
+        <v>6.105</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.372</v>
+        <v>-8.251999999999999</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -930,7 +930,7 @@
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.574</v>
+        <v>-7.297999999999999</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -1066,7 +1066,7 @@
         <v>-12.29</v>
       </c>
       <c r="D37" t="n">
-        <v>-7.860000000000001</v>
+        <v>-7.822</v>
       </c>
       <c r="E37" t="n">
         <v>16.03</v>
@@ -1083,10 +1083,10 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.056</v>
+        <v>-7.355000000000001</v>
       </c>
       <c r="E38" t="n">
-        <v>16.474</v>
+        <v>16.658</v>
       </c>
     </row>
     <row r="39">
@@ -1188,7 +1188,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>17.004</v>
+        <v>16.874</v>
       </c>
     </row>
     <row r="45">
@@ -1304,10 +1304,10 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-8.668000000000001</v>
+        <v>-8.401</v>
       </c>
       <c r="E51" t="n">
-        <v>16.71</v>
+        <v>16.634</v>
       </c>
     </row>
     <row r="52">
@@ -1372,7 +1372,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.017999999999999</v>
+        <v>-8.129000000000001</v>
       </c>
       <c r="E55" t="n">
         <v>16.57</v>
@@ -1409,7 +1409,7 @@
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.668</v>
+        <v>16.532</v>
       </c>
     </row>
     <row r="58">
@@ -1511,7 +1511,7 @@
         <v>-7.14</v>
       </c>
       <c r="E63" t="n">
-        <v>17.732</v>
+        <v>17.601</v>
       </c>
     </row>
     <row r="64">
@@ -1604,13 +1604,13 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>7.223999999999999</v>
+        <v>5.992</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
       </c>
       <c r="D69" t="n">
-        <v>-7.325999999999999</v>
+        <v>-7.438000000000001</v>
       </c>
       <c r="E69" t="n">
         <v>17.51</v>
@@ -1627,10 +1627,10 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-6.928</v>
+        <v>-7.175999999999999</v>
       </c>
       <c r="E70" t="n">
-        <v>18.3</v>
+        <v>17.792</v>
       </c>
     </row>
     <row r="71">
@@ -1723,7 +1723,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>6.004</v>
+        <v>6.308</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1825,7 +1825,7 @@
         <v>-22.09</v>
       </c>
       <c r="B82" t="n">
-        <v>6.018000000000001</v>
+        <v>5.366</v>
       </c>
       <c r="C82" t="n">
         <v>-14.08</v>
@@ -1848,7 +1848,7 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-8.889999999999999</v>
+        <v>-8.373000000000001</v>
       </c>
       <c r="E83" t="n">
         <v>16.38</v>
@@ -2123,7 +2123,7 @@
         <v>-7.98</v>
       </c>
       <c r="E99" t="n">
-        <v>16.658</v>
+        <v>16.643</v>
       </c>
     </row>
     <row r="100">
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.347999999999999</v>
+        <v>-7.833</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
